--- a/data/trans_bre/P12_3_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>5.330345530070263</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.864097407553854</v>
+        <v>3.864097407553857</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5912918254082491</v>
@@ -649,7 +649,7 @@
         <v>0.4095896847411856</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1865860708050804</v>
+        <v>0.1865860708050805</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.683174615379547</v>
+        <v>1.643459727290816</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.727923128565535</v>
+        <v>3.707765476081029</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.208019081946548</v>
+        <v>2.382299338892613</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.5527281390126166</v>
+        <v>-0.8934935630948289</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1592565379805975</v>
+        <v>0.1393537653465518</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2740712469249396</v>
+        <v>0.2714233204717676</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1495580880013914</v>
+        <v>0.1492254898996645</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.02481629939200548</v>
+        <v>-0.03661701341664121</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.93233319526609</v>
+        <v>7.873970396453529</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.26082964682493</v>
+        <v>10.15880694118466</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.477990590424026</v>
+        <v>8.296186839612062</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.592140972490862</v>
+        <v>8.293712266852523</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.163346214175811</v>
+        <v>1.175917403948577</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9569733362576738</v>
+        <v>0.9608701267238297</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7461877074844523</v>
+        <v>0.7186321120590075</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4922204060456755</v>
+        <v>0.4768779117788882</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7201459050639956</v>
+        <v>0.6297078219655182</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.906170263573016</v>
+        <v>3.648939320067077</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.231262755594199</v>
+        <v>1.087194942527279</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.219764470441766</v>
+        <v>2.260049202364771</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1325373678951864</v>
+        <v>0.08884114944731783</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5162547946417354</v>
+        <v>0.4594426157401201</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1902335084098406</v>
+        <v>0.1454400053984906</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1751634333894332</v>
+        <v>0.1824533023779198</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.12429796350745</v>
+        <v>5.042228606335343</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.069514583947685</v>
+        <v>9.248664059054876</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.983102045227435</v>
+        <v>6.074216674566451</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.622176617161286</v>
+        <v>7.919960993531469</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.310963843331252</v>
+        <v>1.239439731207794</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.707249792709784</v>
+        <v>1.716624507654741</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.314869656072717</v>
+        <v>1.185805103093567</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.853682239426953</v>
+        <v>0.8763555054473693</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.270791082495645</v>
+        <v>-1.407064699149055</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9701231969924713</v>
+        <v>-0.7593727599542244</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6257673877851826</v>
+        <v>0.2644893204955474</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.763335145715735</v>
+        <v>1.439341306962865</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2734087563373586</v>
+        <v>-0.2798807629565194</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1463623393378543</v>
+        <v>-0.1237525489775173</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1182784289588848</v>
+        <v>0.04209458245345246</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2386027717471348</v>
+        <v>0.1900590285798845</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.16633445961223</v>
+        <v>2.071137644702373</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.88404104765042</v>
+        <v>3.987978839319718</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.055789737165515</v>
+        <v>5.019331565117566</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.865552818875671</v>
+        <v>6.082580644510583</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7165297180645229</v>
+        <v>0.6866555300698233</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7556016304960319</v>
+        <v>0.8271467217560966</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.748044802598147</v>
+        <v>1.703362992804869</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.098256863185985</v>
+        <v>1.171526821973324</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.255871321116504</v>
+        <v>2.538327751840834</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4978610015434237</v>
+        <v>0.1868921172504495</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.946993095113823</v>
+        <v>1.207994848240856</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.9938532199182322</v>
+        <v>-0.9702843968123258</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.505378329380666</v>
+        <v>0.5531315116410317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04876512766024987</v>
+        <v>0.02134384340883656</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1024259297067038</v>
+        <v>0.1869367795119821</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08464696127899579</v>
+        <v>-0.08004769490288002</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.442049332578861</v>
+        <v>9.481744830084912</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.979445640999428</v>
+        <v>7.988052570799123</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.871324637346146</v>
+        <v>7.355840231596641</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.880992227859362</v>
+        <v>4.718095970040689</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5.792041060977215</v>
+        <v>4.73876397593718</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.709374231842884</v>
+        <v>1.838584340282523</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.911068480801443</v>
+        <v>2.987154145107412</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5550555855479473</v>
+        <v>0.5616713684836643</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>4.333757317941925</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.135384825350484</v>
+        <v>4.135384825350489</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6863999398238304</v>
@@ -1049,7 +1049,7 @@
         <v>0.5849942771106804</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3901191688025261</v>
+        <v>0.3901191688025266</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.231134757890608</v>
+        <v>2.205732318173502</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.48330878323041</v>
+        <v>3.735172548635093</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.851391712077745</v>
+        <v>2.879561939039591</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.630722676063444</v>
+        <v>2.499563218263284</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4053528041547214</v>
+        <v>0.395456736608474</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3943314497868204</v>
+        <v>0.4189493647378917</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3555993817629294</v>
+        <v>0.3526393103522156</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2353949592332594</v>
+        <v>0.2172846135901865</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.651085131890454</v>
+        <v>4.648283507359583</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.610094508874639</v>
+        <v>6.71828473774604</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.688535512356994</v>
+        <v>5.73766881856953</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.558887510710641</v>
+        <v>5.482319875418915</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.063852742072885</v>
+        <v>1.042340039635239</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9065256868752027</v>
+        <v>0.9200454556111538</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8536407268869203</v>
+        <v>0.8570203770963793</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5732023673511132</v>
+        <v>0.5604232932529908</v>
       </c>
     </row>
     <row r="19">
